--- a/frontend/web/templates/rup_test.xlsx
+++ b/frontend/web/templates/rup_test.xlsx
@@ -1,20 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\domains\college.local.dev\college\college\frontend\web\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Orleu\projects\college\frontend\web\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B700D716-27B3-4358-BA64-31E09656D981}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11385" yWindow="7830" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12315" yWindow="7830" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="план" sheetId="1" r:id="rId1"/>
-    <sheet name="бюджет" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>ПЛАН УЧЕБНОГО ПРОЦЕССА</t>
   </si>
@@ -115,39 +113,6 @@
   </si>
   <si>
     <t>8 сем.</t>
-  </si>
-  <si>
-    <t>эти столбцы строго по ТУПУ</t>
-  </si>
-  <si>
-    <t>Итого:</t>
-  </si>
-  <si>
-    <t>Бюджет учебного времени</t>
-  </si>
-  <si>
-    <t>Курс</t>
-  </si>
-  <si>
-    <t>Базовые и профессиональные модули</t>
-  </si>
-  <si>
-    <t>Промежуточная аттестация в неделях</t>
-  </si>
-  <si>
-    <t>Итоговая аттестация в неделях</t>
-  </si>
-  <si>
-    <t>Дипломное проектирование в неделях</t>
-  </si>
-  <si>
-    <t>Каникулы в неделях</t>
-  </si>
-  <si>
-    <t>Праздничные дни в неделях</t>
-  </si>
-  <si>
-    <t>Всего недель в учебном году</t>
   </si>
   <si>
     <t>{codeProfile}</t>
@@ -174,8 +139,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,15 +175,8 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -243,20 +201,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="22">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -506,42 +452,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -568,45 +483,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -674,9 +550,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -772,23 +645,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -824,23 +680,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1016,11 +855,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CJ47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="Z14" sqref="Z14:AC14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1066,7 +905,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:88" x14ac:dyDescent="0.25">
@@ -1074,7 +913,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:88" x14ac:dyDescent="0.25">
@@ -1082,109 +921,109 @@
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:88" x14ac:dyDescent="0.25">
       <c r="D6" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:88" x14ac:dyDescent="0.25">
       <c r="K7" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:88" x14ac:dyDescent="0.25">
       <c r="K8" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:88" x14ac:dyDescent="0.25">
       <c r="K9" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:88" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:88" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="35" t="s">
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="38" t="s">
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="39"/>
-      <c r="S11" s="39"/>
-      <c r="T11" s="39"/>
-      <c r="U11" s="40"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="25"/>
     </row>
     <row r="12" spans="1:88" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="41" t="s">
+      <c r="A12" s="14"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="41" t="s">
+      <c r="D12" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="41" t="s">
+      <c r="E12" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="41" t="s">
+      <c r="F12" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="43"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="46" t="s">
+      <c r="G12" s="28"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="K12" s="47"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="46" t="s">
+      <c r="K12" s="32"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="N12" s="47"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="46" t="s">
+      <c r="N12" s="32"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="Q12" s="47"/>
-      <c r="R12" s="48"/>
-      <c r="S12" s="46" t="s">
+      <c r="Q12" s="32"/>
+      <c r="R12" s="33"/>
+      <c r="S12" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="T12" s="47"/>
-      <c r="U12" s="49"/>
+      <c r="T12" s="32"/>
+      <c r="U12" s="34"/>
     </row>
     <row r="13" spans="1:88" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="30"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
       <c r="G13" s="3" t="s">
         <v>17</v>
       </c>
@@ -1366,12 +1205,10 @@
       <c r="W14" s="7"/>
       <c r="X14" s="7"/>
       <c r="Y14" s="7"/>
-      <c r="Z14" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA14" s="27"/>
-      <c r="AB14" s="27"/>
-      <c r="AC14" s="27"/>
+      <c r="Z14" s="12"/>
+      <c r="AA14" s="12"/>
+      <c r="AB14" s="12"/>
+      <c r="AC14" s="12"/>
       <c r="AD14" s="7"/>
       <c r="AE14" s="7"/>
       <c r="AF14" s="7"/>
@@ -1486,381 +1323,4 @@
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="65" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:O25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X138" sqref="X138"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C1" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-    </row>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-    </row>
-    <row r="3" spans="2:15" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" s="15"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="17"/>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="18">
-        <v>1</v>
-      </c>
-      <c r="C4" s="14">
-        <v>38</v>
-      </c>
-      <c r="D4" s="14">
-        <v>2</v>
-      </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14">
-        <v>11</v>
-      </c>
-      <c r="H4" s="14">
-        <v>1</v>
-      </c>
-      <c r="I4" s="19">
-        <v>52</v>
-      </c>
-      <c r="J4" s="15"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="17"/>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="18">
-        <v>2</v>
-      </c>
-      <c r="C5" s="18">
-        <v>39</v>
-      </c>
-      <c r="D5" s="18">
-        <v>1</v>
-      </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18">
-        <v>11</v>
-      </c>
-      <c r="H5" s="18">
-        <v>1</v>
-      </c>
-      <c r="I5" s="20">
-        <v>52</v>
-      </c>
-      <c r="J5" s="21"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="18">
-        <v>3</v>
-      </c>
-      <c r="C6" s="18">
-        <v>37</v>
-      </c>
-      <c r="D6" s="18">
-        <v>2</v>
-      </c>
-      <c r="E6" s="18">
-        <v>1</v>
-      </c>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18">
-        <v>11</v>
-      </c>
-      <c r="H6" s="18">
-        <v>1</v>
-      </c>
-      <c r="I6" s="20">
-        <v>52</v>
-      </c>
-      <c r="J6" s="21"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="22">
-        <v>4</v>
-      </c>
-      <c r="C7" s="22">
-        <v>32</v>
-      </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22">
-        <v>2</v>
-      </c>
-      <c r="F7" s="18">
-        <v>6</v>
-      </c>
-      <c r="G7" s="18">
-        <v>2</v>
-      </c>
-      <c r="H7" s="18">
-        <v>1</v>
-      </c>
-      <c r="I7" s="23">
-        <v>43</v>
-      </c>
-      <c r="J7" s="21"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="25">
-        <f>SUM(C4:C7)</f>
-        <v>146</v>
-      </c>
-      <c r="D8" s="25">
-        <f t="shared" ref="D8:I8" si="0">SUM(D4:D7)</f>
-        <v>5</v>
-      </c>
-      <c r="E8" s="25">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F8" s="25">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="G8" s="25">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="H8" s="25">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="I8" s="25">
-        <f t="shared" si="0"/>
-        <v>199</v>
-      </c>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-    </row>
-    <row r="12" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-    </row>
-    <row r="13" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-    </row>
-    <row r="14" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-    </row>
-    <row r="15" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-    </row>
-    <row r="16" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-    </row>
-    <row r="17" spans="9:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-    </row>
-    <row r="18" spans="9:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-    </row>
-    <row r="19" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-    </row>
-    <row r="20" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-    </row>
-    <row r="21" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-    </row>
-    <row r="22" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-    </row>
-    <row r="23" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-    </row>
-    <row r="24" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-    </row>
-    <row r="25" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C1:H1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>